--- a/biology/Mycologie/Aimé_Georges_Parrot/Aimé_Georges_Parrot.xlsx
+++ b/biology/Mycologie/Aimé_Georges_Parrot/Aimé_Georges_Parrot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Georges_Parrot</t>
+          <t>Aimé_Georges_Parrot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aimé Georges Parrot est un mycologue français, né le 24 juillet 1910 à Semondans et mort le 24 janvier 1991 à Bayonne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimé Georges Parrot est un mycologue français, né le 24 juillet 1910 à Semondans et mort le 24 janvier 1991 à Bayonne.
 Ce professeur agrégé de sciences naturelles est en poste à Dijon puis à Biarritz.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Georges_Parrot</t>
+          <t>Aimé_Georges_Parrot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>André Charpin et Gérard-Guy Aymonin (2004), Bibliographie sélective des Flores de France. V. Notices biographiques sur les auteurs cités : P-Z et compléments. Le Journal de Botanique de la Société botanique de France, 27 : 47-87.</t>
         </is>
